--- a/DevelopNotes/客户端知识结构.xlsx
+++ b/DevelopNotes/客户端知识结构.xlsx
@@ -4,37 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="图形学" sheetId="1" r:id="rId1"/>
-    <sheet name="框架" sheetId="2" r:id="rId2"/>
-    <sheet name="UI" sheetId="3" r:id="rId3"/>
-    <sheet name="寻路" sheetId="4" r:id="rId4"/>
-    <sheet name="插件" sheetId="5" r:id="rId5"/>
-    <sheet name="网络" sheetId="6" r:id="rId6"/>
-    <sheet name="IOS" sheetId="7" r:id="rId7"/>
-    <sheet name="安卓" sheetId="8" r:id="rId8"/>
-    <sheet name="AI" sheetId="9" r:id="rId9"/>
-    <sheet name="C#" sheetId="10" r:id="rId10"/>
-    <sheet name="引擎功能" sheetId="11" r:id="rId11"/>
+    <sheet name="总纲" sheetId="12" state="hidden" r:id="rId1"/>
+    <sheet name="图形学" sheetId="1" r:id="rId2"/>
+    <sheet name="优化" sheetId="14" r:id="rId3"/>
+    <sheet name="框架" sheetId="2" r:id="rId4"/>
+    <sheet name="UI" sheetId="3" r:id="rId5"/>
+    <sheet name="寻路" sheetId="4" r:id="rId6"/>
+    <sheet name="热更新|Lua" sheetId="13" r:id="rId7"/>
+    <sheet name="插件" sheetId="5" r:id="rId8"/>
+    <sheet name="网络" sheetId="6" r:id="rId9"/>
+    <sheet name="移动" sheetId="7" r:id="rId10"/>
+    <sheet name="AI" sheetId="9" r:id="rId11"/>
+    <sheet name="C#" sheetId="10" r:id="rId12"/>
+    <sheet name="引擎功能" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>static 动态批次合并</t>
-  </si>
-  <si>
-    <t>Mipmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zfighting</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>法线贴图</t>
   </si>
@@ -51,25 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡通渲染，描边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水，消融，战争迷雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裁剪的种类和时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点与线段关系，点与举行关系。欧拉角与四元数</t>
-  </si>
-  <si>
-    <t>向量点乘叉乘，齐次向量，SRT矩阵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后期处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +156,193 @@
   </si>
   <si>
     <t>逻辑应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protobuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ugui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aStarPathfinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navmesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinemachine</t>
+  </si>
+  <si>
+    <t>TimeLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShaderGraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protobuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xLua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度纹理：重建世界坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡通渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zFighting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarlyZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐次向量</t>
+  </si>
+  <si>
+    <t>SRT矩阵</t>
+  </si>
+  <si>
+    <t>向量点乘叉乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点与线段关系</t>
+  </si>
+  <si>
+    <t>点与举行关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉角与四元数</t>
+  </si>
+  <si>
+    <t>GC优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawcall优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assetbundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码质量检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +360,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -222,8 +395,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -528,90 +704,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -623,17 +771,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -642,14 +790,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -657,135 +826,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -797,12 +956,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -810,14 +1006,175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -836,12 +1193,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -851,10 +1224,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -875,13 +1256,52 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DevelopNotes/客户端知识结构.xlsx
+++ b/DevelopNotes/客户端知识结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="12" state="hidden" r:id="rId1"/>
@@ -16,17 +16,18 @@
     <sheet name="热更新|Lua" sheetId="13" r:id="rId7"/>
     <sheet name="插件" sheetId="5" r:id="rId8"/>
     <sheet name="网络" sheetId="6" r:id="rId9"/>
-    <sheet name="移动" sheetId="7" r:id="rId10"/>
+    <sheet name="移动平台" sheetId="7" r:id="rId10"/>
     <sheet name="AI" sheetId="9" r:id="rId11"/>
     <sheet name="C#" sheetId="10" r:id="rId12"/>
     <sheet name="引擎功能" sheetId="11" r:id="rId13"/>
+    <sheet name="项目整理" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>法线贴图</t>
   </si>
@@ -343,6 +344,42 @@
   </si>
   <si>
     <t>代码质量检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luminance</t>
+  </si>
+  <si>
+    <t>光亮度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2125*r+0.7154*g+0.0721*b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积，卷积核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader Replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  不同的Camera的Depth</t>
+  </si>
+  <si>
+    <t>  相同Camera下的不同SortingLayer</t>
+  </si>
+  <si>
+    <t>  相同SortingLayer下的不同Z轴/Order in Layer</t>
+  </si>
+  <si>
+    <t>Overlay&gt;Camera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +411,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,11 +439,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -708,7 +753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,19 +768,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -752,7 +797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -767,19 +812,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -792,30 +837,35 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -824,127 +874,164 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -958,16 +1045,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -978,22 +1065,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1012,39 +1099,39 @@
       <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1066,12 +1153,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1085,17 +1172,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1106,67 +1193,67 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -1180,14 +1267,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1199,17 +1310,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1228,9 +1339,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1247,7 +1358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,9 +1373,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1278,12 +1389,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1294,7 +1405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>51</v>
       </c>

--- a/DevelopNotes/客户端知识结构.xlsx
+++ b/DevelopNotes/客户端知识结构.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD17FB22-1FE2-416B-AF04-560467414FE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="12" state="hidden" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>法线贴图</t>
   </si>
@@ -305,17 +306,6 @@
     <t>SRT矩阵</t>
   </si>
   <si>
-    <t>向量点乘叉乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点与线段关系</t>
-  </si>
-  <si>
-    <t>点与举行关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欧拉角与四元数</t>
   </si>
   <si>
@@ -382,11 +372,83 @@
     <t>Overlay&gt;Camera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>event与delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱拆箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可空值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量点乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量叉乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编程渲染管线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sLua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -463,7 +525,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,6 +600,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -573,6 +652,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -761,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -792,41 +888,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -835,12 +918,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -865,7 +1035,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -889,11 +1064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -903,64 +1078,85 @@
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -990,48 +1186,22 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1042,10 +1212,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1056,33 +1226,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1092,11 +1262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1266,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1277,22 +1447,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1303,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1332,11 +1502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1346,6 +1516,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1366,14 +1541,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/DevelopNotes/客户端知识结构.xlsx
+++ b/DevelopNotes/客户端知识结构.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD17FB22-1FE2-416B-AF04-560467414FE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CAB51-CFB4-4EA6-8ECE-E1793C456DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="12" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>法线贴图</t>
   </si>
@@ -442,6 +442,14 @@
   </si>
   <si>
     <t>sLua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Point Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +869,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -923,7 +934,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1009,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1444,6 +1455,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1474,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1495,6 +1509,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1519,6 +1538,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1569,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
